--- a/pmt/data/for_mta/increase500m_by_county_and_establishment_payroll.xlsx
+++ b/pmt/data/for_mta/increase500m_by_county_and_establishment_payroll.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">area</t>
   </si>
@@ -95,7 +95,10 @@
     <t xml:space="preserve">&gt;= 4,000,000 - &lt; 5,000,000</t>
   </si>
   <si>
-    <t xml:space="preserve">&gt;= 5,000,000 - &lt; Inf</t>
+    <t xml:space="preserve">&gt;= 5,000,000 - &lt; 10,000,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;= 10,000,000 - &lt; Inf</t>
   </si>
 </sst>
 </file>
@@ -1551,7 +1554,7 @@
         <v>13156402.375418</v>
       </c>
       <c r="G49" t="n">
-        <v>13156402.375418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1574,7 +1577,7 @@
         <v>336804.459922129</v>
       </c>
       <c r="G50" t="n">
-        <v>336804.459922129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1597,7 +1600,7 @@
         <v>932411.583296012</v>
       </c>
       <c r="G51" t="n">
-        <v>932411.583296012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1620,7 +1623,7 @@
         <v>328956.275061578</v>
       </c>
       <c r="G52" t="n">
-        <v>328956.275061578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1643,7 +1646,7 @@
         <v>39443.5696687946</v>
       </c>
       <c r="G53" t="n">
-        <v>39443.5696687946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1666,7 +1669,7 @@
         <v>659062.082476472</v>
       </c>
       <c r="G54" t="n">
-        <v>659062.082476472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -1689,7 +1692,7 @@
         <v>1774617.51243213</v>
       </c>
       <c r="G55" t="n">
-        <v>1774617.51243213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1712,7 +1715,7 @@
         <v>376441.601153605</v>
       </c>
       <c r="G56" t="n">
-        <v>376441.601153605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -1735,7 +1738,7 @@
         <v>6541878.73206555</v>
       </c>
       <c r="G57" t="n">
-        <v>7959285.79067976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1758,7 +1761,7 @@
         <v>1317040.52650997</v>
       </c>
       <c r="G58" t="n">
-        <v>1599816.87484887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -1781,7 +1784,7 @@
         <v>1323457.59939803</v>
       </c>
       <c r="G59" t="n">
-        <v>1607611.73103348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -1804,7 +1807,7 @@
         <v>15631.0416270567</v>
       </c>
       <c r="G60" t="n">
-        <v>18987.1182116894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1827,7 +1830,7 @@
         <v>257472.387288674</v>
       </c>
       <c r="G61" t="n">
-        <v>312753.223383007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -1850,7 +1853,7 @@
         <v>469710.990978371</v>
       </c>
       <c r="G62" t="n">
-        <v>570560.703747257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1873,7 +1876,7 @@
         <v>17935580.3198816</v>
       </c>
       <c r="G63" t="n">
-        <v>21821622.7225227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -1896,7 +1899,7 @@
         <v>108540.703055059</v>
       </c>
       <c r="G64" t="n">
-        <v>131845.030475703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -1919,7 +1922,7 @@
         <v>4661269.53296494</v>
       </c>
       <c r="G65" t="n">
-        <v>5662071.52092506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -1942,7 +1945,7 @@
         <v>377514.506409867</v>
       </c>
       <c r="G66" t="n">
-        <v>458569.091609632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1965,7 +1968,7 @@
         <v>20772.1743556639</v>
       </c>
       <c r="G67" t="n">
-        <v>25232.0823790859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1988,7 +1991,7 @@
         <v>61169.8643674586</v>
       </c>
       <c r="G68" t="n">
-        <v>74303.3940698836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2011,7 +2014,7 @@
         <v>1939092.39224037</v>
       </c>
       <c r="G69" t="n">
-        <v>2355426.93528021</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2034,7 +2037,7 @@
         <v>8615242.74171337</v>
       </c>
       <c r="G70" t="n">
-        <v>10464986.0362577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2057,7 +2060,7 @@
         <v>203041157.376194</v>
       </c>
       <c r="G71" t="n">
-        <v>247033408.141036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2080,7 +2083,7 @@
         <v>1136590.97953443</v>
       </c>
       <c r="G72" t="n">
-        <v>1380623.74866977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2103,7 +2106,7 @@
         <v>7226389.81336883</v>
       </c>
       <c r="G73" t="n">
-        <v>8777938.21447449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2126,7 +2129,7 @@
         <v>857020.767270259</v>
       </c>
       <c r="G74" t="n">
-        <v>1041028.16730181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2149,7 +2152,7 @@
         <v>282331.628548855</v>
       </c>
       <c r="G75" t="n">
-        <v>342949.88997258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2172,7 +2175,7 @@
         <v>1681079.63720667</v>
       </c>
       <c r="G76" t="n">
-        <v>2042017.32401869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -2195,7 +2198,7 @@
         <v>11280729.6323651</v>
       </c>
       <c r="G77" t="n">
-        <v>13702768.641667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2218,7 +2221,7 @@
         <v>8200152.77640556</v>
       </c>
       <c r="G78" t="n">
-        <v>9960773.81369264</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -2241,7 +2244,7 @@
         <v>99603297.1933393</v>
       </c>
       <c r="G79" t="n">
-        <v>121184011.585229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2264,7 +2267,7 @@
         <v>594599.842894851</v>
       </c>
       <c r="G80" t="n">
-        <v>722263.926810511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2287,7 +2290,7 @@
         <v>3693301.80945654</v>
       </c>
       <c r="G81" t="n">
-        <v>4486275.43325162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2310,7 +2313,7 @@
         <v>1847006.33650108</v>
       </c>
       <c r="G82" t="n">
-        <v>2243569.46169102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2333,7 +2336,7 @@
         <v>467055.639516051</v>
       </c>
       <c r="G83" t="n">
-        <v>567335.232706262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2356,7 +2359,7 @@
         <v>935773.256346723</v>
       </c>
       <c r="G84" t="n">
-        <v>1136689.27903293</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2379,7 +2382,7 @@
         <v>4820034.26502096</v>
       </c>
       <c r="G85" t="n">
-        <v>5854923.97486369</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2402,7 +2405,7 @@
         <v>4641843.98040068</v>
       </c>
       <c r="G86" t="n">
-        <v>5638475.1879573</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2425,7 +2428,7 @@
         <v>65640872.6631536</v>
       </c>
       <c r="G87" t="n">
-        <v>79863061.7401702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2448,7 +2451,7 @@
         <v>551148.574114941</v>
       </c>
       <c r="G88" t="n">
-        <v>669483.415027854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2471,7 +2474,7 @@
         <v>4130978.87801055</v>
       </c>
       <c r="G89" t="n">
-        <v>5017924.34299517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2494,7 +2497,7 @@
         <v>620256.564493815</v>
       </c>
       <c r="G90" t="n">
-        <v>753429.297458664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2517,7 +2520,7 @@
         <v>73292.7837669201</v>
       </c>
       <c r="G91" t="n">
-        <v>89029.1755757</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -2540,7 +2543,7 @@
         <v>671042.805731824</v>
       </c>
       <c r="G92" t="n">
-        <v>815119.643433069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2563,7 +2566,7 @@
         <v>3110092.59141415</v>
       </c>
       <c r="G93" t="n">
-        <v>3777847.76545306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2586,7 +2589,7 @@
         <v>4834186.2809551</v>
       </c>
       <c r="G94" t="n">
-        <v>5872114.51186605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -2600,16 +2603,16 @@
         <v>27</v>
       </c>
       <c r="D95" t="n">
-        <v>13147.926771612</v>
+        <v>5049.03121261137</v>
       </c>
       <c r="E95" t="n">
-        <v>1801344.33161895</v>
+        <v>270497.244536409</v>
       </c>
       <c r="F95" t="n">
-        <v>1866858953.66844</v>
+        <v>210418442.344748</v>
       </c>
       <c r="G95" t="n">
-        <v>2271345060.29661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -2623,16 +2626,16 @@
         <v>27</v>
       </c>
       <c r="D96" t="n">
-        <v>110.413464074888</v>
+        <v>72.216267398014</v>
       </c>
       <c r="E96" t="n">
-        <v>28512.6577649484</v>
+        <v>6438.62062252407</v>
       </c>
       <c r="F96" t="n">
-        <v>7945906.33799655</v>
+        <v>1403363.43140209</v>
       </c>
       <c r="G96" t="n">
-        <v>9651939.16938992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -2646,16 +2649,16 @@
         <v>27</v>
       </c>
       <c r="D97" t="n">
-        <v>854.339148306306</v>
+        <v>479.9339292695</v>
       </c>
       <c r="E97" t="n">
-        <v>175485.167142233</v>
+        <v>42392.1897973711</v>
       </c>
       <c r="F97" t="n">
-        <v>53163742.9677776</v>
+        <v>11080380.8241697</v>
       </c>
       <c r="G97" t="n">
-        <v>64578311.3108593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -2669,16 +2672,16 @@
         <v>27</v>
       </c>
       <c r="D98" t="n">
-        <v>114.965911465157</v>
+        <v>71.3231279418395</v>
       </c>
       <c r="E98" t="n">
-        <v>29435.9748929263</v>
+        <v>6967.29709196389</v>
       </c>
       <c r="F98" t="n">
-        <v>6953811.12267489</v>
+        <v>1671395.06427504</v>
       </c>
       <c r="G98" t="n">
-        <v>8446835.27548449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -2692,16 +2695,16 @@
         <v>27</v>
       </c>
       <c r="D99" t="n">
-        <v>19.6693639328138</v>
+        <v>15.2212305512231</v>
       </c>
       <c r="E99" t="n">
-        <v>3686.22683899867</v>
+        <v>1349.18182411602</v>
       </c>
       <c r="F99" t="n">
-        <v>928351.268772317</v>
+        <v>368679.156542645</v>
       </c>
       <c r="G99" t="n">
-        <v>1127673.74706755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -2715,16 +2718,16 @@
         <v>27</v>
       </c>
       <c r="D100" t="n">
-        <v>149.852675856245</v>
+        <v>84.8064448919954</v>
       </c>
       <c r="E100" t="n">
-        <v>29395.012376503</v>
+        <v>7561.44658819189</v>
       </c>
       <c r="F100" t="n">
-        <v>7504952.85811372</v>
+        <v>1830893.54800402</v>
       </c>
       <c r="G100" t="n">
-        <v>9116310.38353225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -2738,16 +2741,16 @@
         <v>27</v>
       </c>
       <c r="D101" t="n">
-        <v>1008.2622133097</v>
+        <v>693.273915336173</v>
       </c>
       <c r="E101" t="n">
-        <v>155298.309162762</v>
+        <v>53663.8179964058</v>
       </c>
       <c r="F101" t="n">
-        <v>46705545.4267007</v>
+        <v>15615643.5945931</v>
       </c>
       <c r="G101" t="n">
-        <v>56733500.7683159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -2761,16 +2764,200 @@
         <v>27</v>
       </c>
       <c r="D102" t="n">
-        <v>729.574003648974</v>
+        <v>357.819383976415</v>
       </c>
       <c r="E102" t="n">
-        <v>115519.737862224</v>
+        <v>28519.6921533606</v>
       </c>
       <c r="F102" t="n">
-        <v>43304505.0864612</v>
+        <v>8243558.46297564</v>
       </c>
       <c r="G102" t="n">
-        <v>52602237.0609073</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" t="n">
+        <v>14</v>
+      </c>
+      <c r="C103" t="s">
+        <v>28</v>
+      </c>
+      <c r="D103" t="n">
+        <v>8098.89555900067</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1530847.08708254</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1656440511.3237</v>
+      </c>
+      <c r="G103" t="n">
+        <v>3036807604.09344</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" t="n">
+        <v>14</v>
+      </c>
+      <c r="C104" t="s">
+        <v>28</v>
+      </c>
+      <c r="D104" t="n">
+        <v>38.1971966768742</v>
+      </c>
+      <c r="E104" t="n">
+        <v>22074.0371424243</v>
+      </c>
+      <c r="F104" t="n">
+        <v>6542542.90659445</v>
+      </c>
+      <c r="G104" t="n">
+        <v>16163929.5339392</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" t="n">
+        <v>14</v>
+      </c>
+      <c r="C105" t="s">
+        <v>28</v>
+      </c>
+      <c r="D105" t="n">
+        <v>374.405219036806</v>
+      </c>
+      <c r="E105" t="n">
+        <v>133092.977344862</v>
+      </c>
+      <c r="F105" t="n">
+        <v>42083362.1436079</v>
+      </c>
+      <c r="G105" t="n">
+        <v>103970659.41362</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" t="n">
+        <v>14</v>
+      </c>
+      <c r="C106" t="s">
+        <v>28</v>
+      </c>
+      <c r="D106" t="n">
+        <v>43.6427835233172</v>
+      </c>
+      <c r="E106" t="n">
+        <v>22468.6778009624</v>
+      </c>
+      <c r="F106" t="n">
+        <v>5282416.05839984</v>
+      </c>
+      <c r="G106" t="n">
+        <v>13050674.9678114</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>12</v>
+      </c>
+      <c r="B107" t="n">
+        <v>14</v>
+      </c>
+      <c r="C107" t="s">
+        <v>28</v>
+      </c>
+      <c r="D107" t="n">
+        <v>4.44813338159076</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2337.04501488264</v>
+      </c>
+      <c r="F107" t="n">
+        <v>559672.112229671</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1382719.33609684</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108" t="n">
+        <v>14</v>
+      </c>
+      <c r="C108" t="s">
+        <v>28</v>
+      </c>
+      <c r="D108" t="n">
+        <v>65.0462309642494</v>
+      </c>
+      <c r="E108" t="n">
+        <v>21833.5657883111</v>
+      </c>
+      <c r="F108" t="n">
+        <v>5674059.31010969</v>
+      </c>
+      <c r="G108" t="n">
+        <v>14018264.1779181</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>14</v>
+      </c>
+      <c r="B109" t="n">
+        <v>14</v>
+      </c>
+      <c r="C109" t="s">
+        <v>28</v>
+      </c>
+      <c r="D109" t="n">
+        <v>314.988297973529</v>
+      </c>
+      <c r="E109" t="n">
+        <v>101634.491166356</v>
+      </c>
+      <c r="F109" t="n">
+        <v>31089901.8321076</v>
+      </c>
+      <c r="G109" t="n">
+        <v>76810345.7028541</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>15</v>
+      </c>
+      <c r="B110" t="n">
+        <v>14</v>
+      </c>
+      <c r="C110" t="s">
+        <v>28</v>
+      </c>
+      <c r="D110" t="n">
+        <v>371.754619672559</v>
+      </c>
+      <c r="E110" t="n">
+        <v>87000.0457088631</v>
+      </c>
+      <c r="F110" t="n">
+        <v>35060946.6234855</v>
+      </c>
+      <c r="G110" t="n">
+        <v>86621162.2462584</v>
       </c>
     </row>
   </sheetData>
